--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/social-interaction-type-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/social-interaction-type-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/CodeSystem/social-interaction-type-cs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/social-interaction-type-cs</t>
   </si>
 </sst>
 </file>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T17:48:34+01:00</t>
+    <t>2025-10-01T16:36:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,31 +78,49 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Northern America a/</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Types of social interactions</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Types of social interactions</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
   </si>
   <si>
     <t>System URI</t>
@@ -239,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,43 +322,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>22</v>
@@ -345,22 +368,62 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -382,28 +445,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-social-interaction-type-vs.xlsx
+++ b/output/ValueSet-social-interaction-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
